--- a/YSteam開発資料まとめ/schedules/team開発全体スケジュール.xlsx
+++ b/YSteam開発資料まとめ/schedules/team開発全体スケジュール.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\team開発\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F209B4B-B0C6-4B05-A57C-9EC5565BEFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3325464-25FD-4D97-B71B-C904F277328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{55D5CD25-6752-4F6F-96F3-9525438A7431}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
     <sheet name="tasks" sheetId="2" r:id="rId2"/>
+    <sheet name="rules" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -343,6 +344,54 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>githubリモートリポジトリ追加</t>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rules</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール管理者は進捗管理シートの記入を必ず実施。</t>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>シンチョクカンリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -352,9 +401,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="179" formatCode="m/d;@"/>
-    <numFmt numFmtId="180" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
-    <numFmt numFmtId="181" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
+    <numFmt numFmtId="178" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -637,7 +686,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -687,56 +736,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -801,7 +850,7 @@
         <name val="游ゴシック Medium"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="181" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
+      <numFmt numFmtId="178" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -879,7 +928,7 @@
         <name val="游ゴシック Medium"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="179" formatCode="m/d;@"/>
+      <numFmt numFmtId="176" formatCode="m/d;@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -918,7 +967,7 @@
         <name val="游ゴシック Medium"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="179" formatCode="m/d;@"/>
+      <numFmt numFmtId="176" formatCode="m/d;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -963,7 +1012,7 @@
         <name val="游ゴシック Medium"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="179" formatCode="m/d;@"/>
+      <numFmt numFmtId="176" formatCode="m/d;@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1069,13 +1118,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1096,6 +1138,13 @@
         <name val="游ゴシック Medium"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1210,7 +1259,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99E6BC65-DFA7-492C-9BDB-47FA8386E151}" name="タスク_3" displayName="タスク_3" ref="D2:K44" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99E6BC65-DFA7-492C-9BDB-47FA8386E151}" name="タスク_3" displayName="タスク_3" ref="D2:K44" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
   <autoFilter ref="D2:K44" xr:uid="{99E6BC65-DFA7-492C-9BDB-47FA8386E151}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F415A23A-97F0-4D8C-8DF4-90B7D8AE745F}" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
@@ -1528,25 +1577,25 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="29"/>
+    <col min="1" max="1" width="8.796875" style="27"/>
     <col min="3" max="3" width="17.3984375" customWidth="1"/>
     <col min="4" max="4" width="78.796875" customWidth="1"/>
     <col min="5" max="5" width="18.69921875" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="29"/>
+    <col min="6" max="16384" width="8.796875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
@@ -1804,861 +1853,873 @@
   <dimension ref="B1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.69921875" defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.69921875" style="19"/>
-    <col min="2" max="2" width="3.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" style="26" customWidth="1"/>
-    <col min="8" max="8" width="9" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.296875" style="27" customWidth="1"/>
-    <col min="10" max="10" width="2.69921875" style="19" customWidth="1"/>
-    <col min="11" max="11" width="25.5" style="19" customWidth="1"/>
-    <col min="12" max="12" width="2.19921875" style="19" customWidth="1"/>
-    <col min="13" max="16384" width="7.69921875" style="19"/>
+    <col min="1" max="1" width="7.69921875" style="18"/>
+    <col min="2" max="2" width="3.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="30.19921875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.296875" style="26" customWidth="1"/>
+    <col min="10" max="10" width="2.69921875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="18" customWidth="1"/>
+    <col min="12" max="12" width="2.19921875" style="18" customWidth="1"/>
+    <col min="13" max="16384" width="7.69921875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="2:11" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <v>44505</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24">
+      <c r="H3" s="22"/>
+      <c r="I3" s="23">
         <v>0</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="22"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>44505</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24">
+      <c r="H4" s="22"/>
+      <c r="I4" s="23">
         <v>0</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="22"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>3</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>44505</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24">
+      <c r="H5" s="22"/>
+      <c r="I5" s="23">
         <v>0</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>4</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25">
+      <c r="C6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="22">
+        <v>44505</v>
+      </c>
+      <c r="G6" s="22">
+        <v>44505</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="22"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>5</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="22"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>6</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="22"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>7</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>8</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="22"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>9</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>10</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>11</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="22"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>12</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="22"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>13</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>14</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="22"/>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>15</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="22"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>16</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>17</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="22"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>18</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="22"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="21"/>
     </row>
     <row r="21" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>19</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="22"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>20</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="22"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>21</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="22"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>22</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="22"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>23</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="22"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>24</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="22"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="20">
+      <c r="B27" s="19">
         <v>25</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="22"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>26</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="22"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>27</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="22"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="21"/>
     </row>
     <row r="30" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="20">
+      <c r="B30" s="19">
         <v>28</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="22"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="21"/>
     </row>
     <row r="31" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="20">
+      <c r="B31" s="19">
         <v>29</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="22"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="20">
+      <c r="B32" s="19">
         <v>30</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="22"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="21"/>
     </row>
     <row r="33" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="20">
+      <c r="B33" s="19">
         <v>31</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="22"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="21"/>
     </row>
     <row r="34" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="20">
+      <c r="B34" s="19">
         <v>32</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="22"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="21"/>
     </row>
     <row r="35" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="20">
+      <c r="B35" s="19">
         <v>33</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="22"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="20">
+      <c r="B36" s="19">
         <v>34</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="22"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="21"/>
     </row>
     <row r="37" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="20">
+      <c r="B37" s="19">
         <v>35</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="22"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="21"/>
     </row>
     <row r="38" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="20">
+      <c r="B38" s="19">
         <v>36</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="22"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="21"/>
     </row>
     <row r="39" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="20">
+      <c r="B39" s="19">
         <v>37</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="22"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="21"/>
     </row>
     <row r="40" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="20">
+      <c r="B40" s="19">
         <v>38</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="20">
+      <c r="B41" s="19">
         <v>39</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="25">
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="22"/>
+      <c r="K41" s="21"/>
     </row>
     <row r="42" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="20">
+      <c r="B42" s="19">
         <v>40</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="25">
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="22"/>
+      <c r="K42" s="21"/>
     </row>
     <row r="43" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="20">
+      <c r="B43" s="19">
         <v>41</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="25">
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K43" s="22"/>
+      <c r="K43" s="21"/>
     </row>
     <row r="44" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="20">
+      <c r="B44" s="19">
         <v>42</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="25">
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="22"/>
+      <c r="K44" s="21"/>
     </row>
     <row r="45" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="20">
+      <c r="B45" s="19">
         <v>43</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="22"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="21"/>
     </row>
     <row r="46" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="20">
+      <c r="B46" s="19">
         <v>44</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="22"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="21"/>
     </row>
     <row r="47" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="20">
+      <c r="B47" s="19">
         <v>45</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="22"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="21"/>
     </row>
     <row r="48" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="20">
+      <c r="B48" s="19">
         <v>46</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="22"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="21"/>
     </row>
     <row r="49" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="20">
+      <c r="B49" s="19">
         <v>47</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="22"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="21"/>
     </row>
     <row r="50" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="20">
+      <c r="B50" s="19">
         <v>48</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="22"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="21"/>
     </row>
     <row r="51" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="20">
+      <c r="B51" s="19">
         <v>49</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="22"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="21"/>
     </row>
     <row r="52" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="20">
+      <c r="B52" s="19">
         <v>50</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="22"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2692,8 +2753,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの名前を入力します" sqref="C2:E2" xr:uid="{454ED05D-886A-41EF-9C57-F459026F90DC}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -2738,4 +2800,36 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4379B3-9B0B-435A-B30D-36F4ABDCC26E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/YSteam開発資料まとめ/schedules/team開発全体スケジュール.xlsx
+++ b/YSteam開発資料まとめ/schedules/team開発全体スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3325464-25FD-4D97-B71B-C904F277328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED294C35-77C7-410E-902E-A915A76AE94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{55D5CD25-6752-4F6F-96F3-9525438A7431}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{55D5CD25-6752-4F6F-96F3-9525438A7431}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -392,6 +392,19 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←画面設計書、DB設計書完成</t>
+    <rPh sb="1" eb="6">
+      <t>ガメンセッケイショ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -405,7 +418,7 @@
     <numFmt numFmtId="177" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="178" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,8 +500,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,6 +535,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -696,7 +724,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,6 +814,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1574,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65639CA-4D7F-4DE3-A2F6-78CAB705A63C}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1586,10 +1629,11 @@
     <col min="3" max="3" width="17.3984375" customWidth="1"/>
     <col min="4" max="4" width="78.796875" customWidth="1"/>
     <col min="5" max="5" width="18.69921875" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="27"/>
+    <col min="6" max="6" width="27.5" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="28" t="s">
         <v>16</v>
       </c>
@@ -1597,7 +1641,7 @@
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
     </row>
-    <row r="2" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6">
         <v>44505</v>
       </c>
@@ -1625,7 +1669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="8">
         <v>44506</v>
       </c>
@@ -1633,7 +1677,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="8">
         <v>44507</v>
       </c>
@@ -1641,7 +1685,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="6">
         <v>44508</v>
       </c>
@@ -1655,21 +1699,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="6">
+    <row r="7" spans="1:6" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="31">
         <v>44509</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="33" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F7" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6">
         <v>44510</v>
       </c>
@@ -1683,7 +1730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="6">
         <v>44511</v>
       </c>
@@ -1697,7 +1744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6">
         <v>44512</v>
       </c>
@@ -1711,7 +1758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="8">
         <v>44513</v>
       </c>
@@ -1719,7 +1766,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="8">
         <v>44514</v>
       </c>
@@ -1727,7 +1774,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="6">
         <v>44515</v>
       </c>
@@ -1737,7 +1784,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="6">
         <v>44516</v>
       </c>
@@ -1749,7 +1796,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="6">
         <v>44517</v>
       </c>
@@ -1761,7 +1808,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="6">
         <v>44518</v>
       </c>
@@ -1852,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8245D6D4-B49C-4F61-8008-93F044F14B63}">
   <dimension ref="B1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.69921875" defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
@@ -2018,11 +2065,11 @@
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="24">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="21"/>
     </row>
@@ -2807,7 +2854,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
